--- a/raw-data/JRL_block1_30_16_6.xlsx
+++ b/raw-data/JRL_block1_30_16_6.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">1513310784</definedName>
-    <definedName name="MethodPointer2">572</definedName>
+    <definedName name="MethodPointer1">-1815298416</definedName>
+    <definedName name="MethodPointer2">552</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_16_6.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_16_7.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -553,19 +553,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF428EC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD8E9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3385C2"/>
+        <fgColor rgb="FF247CBD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6FA9D6"/>
+        <fgColor rgb="FF5197CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7EB2DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,25 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF247CBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF428EC7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5197CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7EB2DB"/>
+        <fgColor rgb="FF3385C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,49 +696,52 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45765</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.46534722222222219</v>
+        <v>0.56717592592592592</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1628,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1633,7 +1636,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1676,127 +1679,127 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D49" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" s="9">
         <v>13</v>
       </c>
       <c r="F49" s="9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G49" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H49" s="9">
+        <v>9</v>
+      </c>
+      <c r="I49" s="9">
+        <v>9</v>
+      </c>
+      <c r="J49" s="9">
+        <v>12</v>
+      </c>
+      <c r="K49" s="9">
+        <v>9</v>
+      </c>
+      <c r="L49" s="9">
         <v>16</v>
       </c>
-      <c r="I49" s="9">
-        <v>14</v>
-      </c>
-      <c r="J49" s="9">
-        <v>17</v>
-      </c>
-      <c r="K49" s="9">
-        <v>11</v>
-      </c>
-      <c r="L49" s="9">
-        <v>15</v>
-      </c>
       <c r="M49" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N49" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="10">
-        <v>0.879</v>
+        <v>0.89</v>
       </c>
       <c r="D50" s="11">
-        <v>0.98599999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="E50" s="11">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="G50" s="12">
+        <v>1.113</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I50" s="11">
         <v>1.0309999999999999</v>
       </c>
-      <c r="F50" s="12">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="G50" s="12">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="H50" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="I50" s="11">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="J50" s="14">
-        <v>0.84399999999999997</v>
+      <c r="J50" s="10">
+        <v>0.85799999999999998</v>
       </c>
       <c r="K50" s="11">
-        <v>1.018</v>
+        <v>1.012</v>
       </c>
       <c r="L50" s="10">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="M50" s="15">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="M50" s="14">
         <v>0.70499999999999996</v>
       </c>
       <c r="N50" s="12">
-        <v>1.1060000000000001</v>
+        <v>1.115</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D51" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" s="9">
+        <v>12</v>
+      </c>
+      <c r="F51" s="9">
+        <v>10</v>
+      </c>
+      <c r="G51" s="15">
+        <v>3406</v>
+      </c>
+      <c r="H51" s="9">
+        <v>10</v>
+      </c>
+      <c r="I51" s="9">
+        <v>261</v>
+      </c>
+      <c r="J51" s="9">
         <v>11</v>
-      </c>
-      <c r="F51" s="9">
-        <v>14</v>
-      </c>
-      <c r="G51" s="16">
-        <v>2520</v>
-      </c>
-      <c r="H51" s="9">
-        <v>13</v>
-      </c>
-      <c r="I51" s="9">
-        <v>186</v>
-      </c>
-      <c r="J51" s="9">
-        <v>18</v>
       </c>
       <c r="K51" s="9">
         <v>14</v>
       </c>
       <c r="L51" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M51" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N51" s="9">
         <v>13</v>
@@ -1806,255 +1809,255 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="17">
-        <v>1.31</v>
+      <c r="B52" s="31"/>
+      <c r="C52" s="16">
+        <v>1.3089999999999999</v>
       </c>
       <c r="D52" s="11">
-        <v>1.02</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="E52" s="13">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1.1919999999999999</v>
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G52" s="16">
+        <v>1.294</v>
       </c>
       <c r="H52" s="13">
-        <v>0.94</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="I52" s="11">
-        <v>1.0249999999999999</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="J52" s="10">
         <v>0.89700000000000002</v>
       </c>
       <c r="K52" s="12">
-        <v>1.1240000000000001</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="L52" s="12">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="M52" s="14">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="N52" s="17">
-        <v>1.296</v>
+        <v>1.111</v>
+      </c>
+      <c r="M52" s="17">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="N52" s="16">
+        <v>1.3260000000000001</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
+        <v>9</v>
+      </c>
+      <c r="D53" s="9">
+        <v>31</v>
+      </c>
+      <c r="E53" s="9">
+        <v>11</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1359</v>
+      </c>
+      <c r="G53" s="9">
+        <v>16</v>
+      </c>
+      <c r="H53" s="9">
+        <v>9</v>
+      </c>
+      <c r="I53" s="9">
+        <v>27</v>
+      </c>
+      <c r="J53" s="19">
+        <v>3838</v>
+      </c>
+      <c r="K53" s="9">
+        <v>127</v>
+      </c>
+      <c r="L53" s="9">
+        <v>13</v>
+      </c>
+      <c r="M53" s="9">
         <v>12</v>
       </c>
-      <c r="D53" s="9">
-        <v>39</v>
-      </c>
-      <c r="E53" s="9">
+      <c r="N53" s="9">
         <v>12</v>
-      </c>
-      <c r="F53" s="19">
-        <v>1863</v>
-      </c>
-      <c r="G53" s="9">
-        <v>24</v>
-      </c>
-      <c r="H53" s="9">
-        <v>13</v>
-      </c>
-      <c r="I53" s="9">
-        <v>30</v>
-      </c>
-      <c r="J53" s="20">
-        <v>2721</v>
-      </c>
-      <c r="K53" s="9">
-        <v>113</v>
-      </c>
-      <c r="L53" s="9">
-        <v>14</v>
-      </c>
-      <c r="M53" s="9">
-        <v>14</v>
-      </c>
-      <c r="N53" s="9">
-        <v>15</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="21">
-        <v>1.486</v>
+      <c r="B54" s="31"/>
+      <c r="C54" s="20">
+        <v>1.4870000000000001</v>
       </c>
       <c r="D54" s="13">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="E54" s="18">
-        <v>1.163</v>
-      </c>
-      <c r="F54" s="12">
-        <v>1.099</v>
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E54" s="21">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1.2070000000000001</v>
       </c>
       <c r="G54" s="11">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="H54" s="14">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I54" s="18">
-        <v>1.163</v>
-      </c>
-      <c r="J54" s="12">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="K54" s="13">
-        <v>0.95399999999999996</v>
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="H54" s="17">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I54" s="22">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="J54" s="16">
+        <v>1.32</v>
+      </c>
+      <c r="K54" s="11">
+        <v>1.0029999999999999</v>
       </c>
       <c r="L54" s="11">
-        <v>1.048</v>
+        <v>1.05</v>
       </c>
       <c r="M54" s="11">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="N54" s="18">
-        <v>1.167</v>
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="N54" s="22">
+        <v>1.196</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D55" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E55" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F55" s="9">
         <v>13</v>
       </c>
       <c r="G55" s="9">
-        <v>35</v>
-      </c>
-      <c r="H55" s="22">
-        <v>1980</v>
+        <v>26</v>
+      </c>
+      <c r="H55" s="23">
+        <v>2012</v>
       </c>
       <c r="I55" s="9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J55" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K55" s="9">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L55" s="9">
-        <v>104</v>
-      </c>
-      <c r="M55" s="22">
-        <v>2127</v>
+        <v>112</v>
+      </c>
+      <c r="M55" s="15">
+        <v>3425</v>
       </c>
       <c r="N55" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
-      <c r="C56" s="23">
-        <v>1.446</v>
-      </c>
-      <c r="D56" s="11">
-        <v>1.0309999999999999</v>
+      <c r="B56" s="31"/>
+      <c r="C56" s="20">
+        <v>1.472</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1.1259999999999999</v>
       </c>
       <c r="E56" s="24">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="F56" s="13">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1.147</v>
-      </c>
-      <c r="H56" s="11">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="I56" s="13">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="J56" s="11">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="K56" s="10">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="L56" s="11">
-        <v>1.032</v>
+        <v>1.385</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1.048</v>
+      </c>
+      <c r="G56" s="22">
+        <v>1.196</v>
+      </c>
+      <c r="H56" s="22">
+        <v>1.139</v>
+      </c>
+      <c r="I56" s="12">
+        <v>1.101</v>
+      </c>
+      <c r="J56" s="12">
+        <v>1.097</v>
+      </c>
+      <c r="K56" s="13">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="L56" s="12">
+        <v>1.129</v>
       </c>
       <c r="M56" s="24">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="N56" s="25">
-        <v>1.367</v>
+        <v>1.413</v>
+      </c>
+      <c r="N56" s="24">
+        <v>1.369</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="30" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
+        <v>9</v>
+      </c>
+      <c r="D57" s="9">
+        <v>12</v>
+      </c>
+      <c r="E57" s="9">
+        <v>19</v>
+      </c>
+      <c r="F57" s="25">
+        <v>1623</v>
+      </c>
+      <c r="G57" s="9">
+        <v>8</v>
+      </c>
+      <c r="H57" s="9">
+        <v>14</v>
+      </c>
+      <c r="I57" s="9">
+        <v>26</v>
+      </c>
+      <c r="J57" s="9">
+        <v>21</v>
+      </c>
+      <c r="K57" s="9">
         <v>10</v>
       </c>
-      <c r="D57" s="9">
-        <v>20</v>
-      </c>
-      <c r="E57" s="9">
-        <v>26</v>
-      </c>
-      <c r="F57" s="26">
-        <v>665</v>
-      </c>
-      <c r="G57" s="9">
-        <v>11</v>
-      </c>
-      <c r="H57" s="9">
-        <v>12</v>
-      </c>
-      <c r="I57" s="9">
-        <v>27</v>
-      </c>
-      <c r="J57" s="9">
-        <v>23</v>
-      </c>
-      <c r="K57" s="9">
-        <v>11</v>
-      </c>
       <c r="L57" s="9">
-        <v>113</v>
-      </c>
-      <c r="M57" s="26">
-        <v>663</v>
+        <v>129</v>
+      </c>
+      <c r="M57" s="23">
+        <v>1847</v>
       </c>
       <c r="N57" s="9">
         <v>15</v>
@@ -2064,300 +2067,300 @@
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="21">
-        <v>1.518</v>
-      </c>
-      <c r="D58" s="12">
-        <v>1.109</v>
-      </c>
-      <c r="E58" s="18">
-        <v>1.159</v>
-      </c>
-      <c r="F58" s="17">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="H58" s="23">
-        <v>1.4419999999999999</v>
+      <c r="B58" s="31"/>
+      <c r="C58" s="26">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="D58" s="21">
+        <v>1.258</v>
+      </c>
+      <c r="E58" s="21">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="F58" s="26">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="G58" s="16">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="H58" s="27">
+        <v>1.599</v>
       </c>
       <c r="I58" s="24">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="J58" s="24">
-        <v>1.254</v>
-      </c>
-      <c r="K58" s="17">
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="L58" s="18">
-        <v>1.194</v>
-      </c>
-      <c r="M58" s="12">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="N58" s="25">
-        <v>1.3740000000000001</v>
+        <v>1.373</v>
+      </c>
+      <c r="J58" s="20">
+        <v>1.48</v>
+      </c>
+      <c r="K58" s="20">
+        <v>1.431</v>
+      </c>
+      <c r="L58" s="21">
+        <v>1.274</v>
+      </c>
+      <c r="M58" s="21">
+        <v>1.226</v>
+      </c>
+      <c r="N58" s="24">
+        <v>1.381</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E59" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F59" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G59" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H59" s="9">
-        <v>32</v>
-      </c>
-      <c r="I59" s="26">
-        <v>710</v>
+        <v>25</v>
+      </c>
+      <c r="I59" s="28">
+        <v>479</v>
       </c>
       <c r="J59" s="9">
         <v>14</v>
       </c>
-      <c r="K59" s="27">
-        <v>2285</v>
+      <c r="K59" s="15">
+        <v>3338</v>
       </c>
       <c r="L59" s="9">
-        <v>14</v>
-      </c>
-      <c r="M59" s="26">
-        <v>686</v>
+        <v>12</v>
+      </c>
+      <c r="M59" s="23">
+        <v>1761</v>
       </c>
       <c r="N59" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="25">
-        <v>1.37</v>
-      </c>
-      <c r="D60" s="12">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="E60" s="12">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="F60" s="18">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="H60" s="24">
-        <v>1.236</v>
-      </c>
-      <c r="I60" s="12">
-        <v>1.085</v>
-      </c>
-      <c r="J60" s="17">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="K60" s="18">
-        <v>1.18</v>
-      </c>
-      <c r="L60" s="18">
-        <v>1.157</v>
+      <c r="B60" s="31"/>
+      <c r="C60" s="24">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="D60" s="21">
+        <v>1.262</v>
+      </c>
+      <c r="E60" s="21">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="F60" s="21">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="G60" s="24">
+        <v>1.355</v>
+      </c>
+      <c r="H60" s="20">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="I60" s="22">
+        <v>1.202</v>
+      </c>
+      <c r="J60" s="16">
+        <v>1.345</v>
+      </c>
+      <c r="K60" s="20">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="L60" s="16">
+        <v>1.325</v>
       </c>
       <c r="M60" s="13">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="N60" s="24">
-        <v>1.214</v>
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N60" s="21">
+        <v>1.23</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="30" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D61" s="9">
+        <v>11</v>
+      </c>
+      <c r="E61" s="9">
+        <v>13</v>
+      </c>
+      <c r="F61" s="9">
+        <v>8</v>
+      </c>
+      <c r="G61" s="9">
         <v>12</v>
       </c>
-      <c r="E61" s="9">
+      <c r="H61" s="9">
+        <v>10</v>
+      </c>
+      <c r="I61" s="9">
+        <v>10</v>
+      </c>
+      <c r="J61" s="19">
+        <v>4084</v>
+      </c>
+      <c r="K61" s="9">
+        <v>11</v>
+      </c>
+      <c r="L61" s="9">
+        <v>32</v>
+      </c>
+      <c r="M61" s="9">
         <v>12</v>
       </c>
-      <c r="F61" s="9">
-        <v>11</v>
-      </c>
-      <c r="G61" s="9">
-        <v>13</v>
-      </c>
-      <c r="H61" s="9">
-        <v>13</v>
-      </c>
-      <c r="I61" s="9">
-        <v>14</v>
-      </c>
-      <c r="J61" s="20">
-        <v>2766</v>
-      </c>
-      <c r="K61" s="9">
-        <v>13</v>
-      </c>
-      <c r="L61" s="9">
-        <v>43</v>
-      </c>
-      <c r="M61" s="9">
-        <v>15</v>
-      </c>
       <c r="N61" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="28">
-        <v>1.6879999999999999</v>
-      </c>
-      <c r="D62" s="12">
-        <v>1.095</v>
-      </c>
-      <c r="E62" s="24">
-        <v>1.222</v>
-      </c>
-      <c r="F62" s="13">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1.173</v>
-      </c>
-      <c r="H62" s="11">
-        <v>1.0389999999999999</v>
+      <c r="B62" s="31"/>
+      <c r="C62" s="29">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="D62" s="22">
+        <v>1.157</v>
+      </c>
+      <c r="E62" s="16">
+        <v>1.32</v>
+      </c>
+      <c r="F62" s="22">
+        <v>1.157</v>
+      </c>
+      <c r="G62" s="16">
+        <v>1.304</v>
+      </c>
+      <c r="H62" s="21">
+        <v>1.244</v>
       </c>
       <c r="I62" s="24">
-        <v>1.206</v>
-      </c>
-      <c r="J62" s="17">
-        <v>1.274</v>
+        <v>1.421</v>
+      </c>
+      <c r="J62" s="26">
+        <v>1.5489999999999999</v>
       </c>
       <c r="K62" s="12">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="L62" s="12">
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="M62" s="13">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="N62" s="28">
-        <v>1.629</v>
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="L62" s="22">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="M62" s="11">
+        <v>1.024</v>
+      </c>
+      <c r="N62" s="27">
+        <v>1.637</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="30" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D63" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E63" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" s="9">
         <v>10</v>
       </c>
       <c r="G63" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="9">
+        <v>9</v>
+      </c>
+      <c r="I63" s="9">
+        <v>14</v>
+      </c>
+      <c r="J63" s="9">
         <v>11</v>
       </c>
-      <c r="I63" s="9">
+      <c r="K63" s="9">
+        <v>10</v>
+      </c>
+      <c r="L63" s="9">
+        <v>12</v>
+      </c>
+      <c r="M63" s="9">
         <v>11</v>
       </c>
-      <c r="J63" s="9">
+      <c r="N63" s="9">
         <v>15</v>
-      </c>
-      <c r="K63" s="9">
-        <v>13</v>
-      </c>
-      <c r="L63" s="9">
-        <v>17</v>
-      </c>
-      <c r="M63" s="9">
-        <v>15</v>
-      </c>
-      <c r="N63" s="9">
-        <v>16</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="13">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="D64" s="12">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="E64" s="11">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F64" s="11">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1.127</v>
-      </c>
-      <c r="H64" s="18">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="I64" s="11">
-        <v>1.052</v>
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D64" s="22">
+        <v>1.145</v>
+      </c>
+      <c r="E64" s="12">
+        <v>1.099</v>
+      </c>
+      <c r="F64" s="12">
+        <v>1.08</v>
+      </c>
+      <c r="G64" s="22">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="H64" s="22">
+        <v>1.177</v>
+      </c>
+      <c r="I64" s="12">
+        <v>1.085</v>
       </c>
       <c r="J64" s="10">
-        <v>0.88400000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="K64" s="13">
-        <v>0.93100000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="L64" s="12">
-        <v>1.0760000000000001</v>
+        <v>1.073</v>
       </c>
       <c r="M64" s="12">
-        <v>1.08</v>
+        <v>1.091</v>
       </c>
       <c r="N64" s="12">
-        <v>1.08</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
